--- a/src/main/resources/excel/EmbarkData.xlsx
+++ b/src/main/resources/excel/EmbarkData.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yogesh\Java Workspace\EmbarksTddFramework\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD7BBAF-EBA6-4915-9D13-5508B89B69D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79EE179-3C6E-4FD4-842B-AF6E97B18883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{CDB24404-B7D7-4777-926A-B24F89ED5045}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CDB24404-B7D7-4777-926A-B24F89ED5045}"/>
   </bookViews>
   <sheets>
     <sheet name="loginTest" sheetId="1" r:id="rId1"/>
+    <sheet name="HostAndAdventure" sheetId="2" r:id="rId2"/>
+    <sheet name="Overview" sheetId="3" r:id="rId3"/>
+    <sheet name="Location" sheetId="4" r:id="rId4"/>
+    <sheet name="Details" sheetId="5" r:id="rId5"/>
+    <sheet name="Itinerary" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>username</t>
   </si>
@@ -46,6 +51,114 @@
   </si>
   <si>
     <t>Yogesh@2511</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>New York, NY, USA</t>
+  </si>
+  <si>
+    <t>MinimumGroupSize</t>
+  </si>
+  <si>
+    <t>MaximumGroupSize</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Included</t>
+  </si>
+  <si>
+    <t>Not included</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Group Size min</t>
+  </si>
+  <si>
+    <t>Group Size max</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Currency  type</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Per Person</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>What qualifies you to give this tour?</t>
+  </si>
+  <si>
+    <t>Additional info</t>
+  </si>
+  <si>
+    <t>Meetup Location</t>
+  </si>
+  <si>
+    <t>Itinerary</t>
+  </si>
+  <si>
+    <t>Summar Fun</t>
+  </si>
+  <si>
+    <t>Enjoy Surfing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">towels </t>
+  </si>
+  <si>
+    <t>drinks</t>
+  </si>
+  <si>
+    <t>Biking</t>
+  </si>
+  <si>
+    <t>DaysAndTime</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>Cancellation</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>a travel document recording a route or journey</t>
   </si>
 </sst>
 </file>
@@ -90,9 +203,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -410,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CAD688-CA75-4E74-820B-137E4A66724B}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,4 +559,301 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41049B5D-B783-4476-A655-1E3353B58376}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98443BA5-EE18-4A7D-8863-52914778AC3B}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FD20D9-6FF6-49B1-A3E0-009CA8F4ACD2}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF7CF9C-F399-4859-8C0B-4E9E12583FD7}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221ECE5C-0256-49B4-B44E-D2CEFB9908A5}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>